--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32716.15359809928</v>
+        <v>6510514.566021757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32716.15359809928</v>
+        <v>6510514.566021757</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3602.932305639192</v>
+        <v>216175.9383383515</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3602.932305639192</v>
+        <v>216175.9383383515</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959344715.4293517</v>
+        <v>39604350.81720529</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8742.282362940725</v>
+        <v>939070.7139925112</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16567.32239625815</v>
+        <v>1726181.364200382</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24392.36242957556</v>
+        <v>2513292.014408255</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32372.72356123563</v>
+        <v>3289150.001738858</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40292.15552547601</v>
+        <v>4076019.933069503</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48211.58748971615</v>
+        <v>4862889.864400188</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56131.01945395628</v>
+        <v>5649759.795730871</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64050.45141819642</v>
+        <v>6436629.727061554</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72048.6079262869</v>
+        <v>7205649.040695217</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>79982.76958749723</v>
+        <v>7995450.181722781</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>87911.70313832491</v>
+        <v>8782582.410923729</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>95840.5282520015</v>
+        <v>9569693.061131606</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>103769.3533656781</v>
+        <v>10356803.71133948</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>111688.6768927678</v>
+        <v>11143652.06367697</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>119923.0438196925</v>
+        <v>11904575.83231814</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>318.0000000001351</v>
@@ -27055,10 +27055,10 @@
         <v>1.164153218269348e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>276</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
